--- a/strokenplanning_basis.xlsx
+++ b/strokenplanning_basis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arram\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduofficenl-my.sharepoint.com/personal/514184_vistacollege_nl/Documents/GitHub/Challenge-6-game/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F7ADCC-C20C-4FA5-B7E0-59EF9D4FAD33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{F8F7ADCC-C20C-4FA5-B7E0-59EF9D4FAD33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A62B3F7A-5A21-4F7A-9C1B-41600CB5F999}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A271F007-5F3A-7D4F-BAC4-1FC3717E9032}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="68">
   <si>
     <t>Strokenplanning</t>
   </si>
@@ -125,9 +125,6 @@
   </si>
   <si>
     <t>Online</t>
-  </si>
-  <si>
-    <t>15:30/16:45</t>
   </si>
   <si>
     <r>
@@ -237,12 +234,30 @@
   <si>
     <t>Klas</t>
   </si>
+  <si>
+    <t>blok 1</t>
+  </si>
+  <si>
+    <t>blok 2</t>
+  </si>
+  <si>
+    <t>blok 3</t>
+  </si>
+  <si>
+    <t>blok 4</t>
+  </si>
+  <si>
+    <t>blok 5</t>
+  </si>
+  <si>
+    <t>Keuzedelen</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -264,8 +279,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -338,6 +359,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -360,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -388,9 +415,13 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -414,7 +445,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -710,727 +741,1899 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F995B880-CCF8-5A4B-A2D1-8FB852A607F7}">
-  <dimension ref="A1:AG63"/>
+  <dimension ref="A1:EL64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K28" sqref="K28"/>
+      <selection pane="bottomRight" activeCell="AK51" sqref="AK51:AM51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33.296875" customWidth="1"/>
     <col min="2" max="2" width="31.09765625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="31.09765625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:142" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:142" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A2" s="1"/>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="7"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S2" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="19"/>
+      <c r="AL2" s="19"/>
+      <c r="AM2" s="19"/>
+      <c r="AN2" s="19"/>
+      <c r="AO2" s="19"/>
+      <c r="AP2" s="19"/>
+      <c r="AQ2" s="19"/>
+      <c r="AR2" s="19"/>
+      <c r="AS2" s="19"/>
+      <c r="AT2" s="19"/>
+      <c r="AU2" s="19"/>
+      <c r="AV2" s="7"/>
+      <c r="AW2" s="7"/>
+      <c r="AX2" s="7"/>
+    </row>
+    <row r="3" spans="1:142" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
       <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="T3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
+      <c r="U3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" t="s">
+      <c r="Z3" t="s">
         <v>9</v>
       </c>
-      <c r="H3" t="s">
+      <c r="AE3" t="s">
         <v>10</v>
       </c>
-      <c r="I3" t="s">
+      <c r="AI3" t="s">
         <v>6</v>
       </c>
-      <c r="J3" t="s">
+      <c r="AJ3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" t="s">
+      <c r="AK3" t="s">
         <v>8</v>
       </c>
-      <c r="L3" t="s">
+      <c r="AP3" t="s">
         <v>9</v>
       </c>
-      <c r="M3" t="s">
+      <c r="AU3" t="s">
         <v>10</v>
       </c>
-      <c r="N3" t="s">
-        <v>6</v>
-      </c>
-      <c r="O3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>9</v>
-      </c>
-      <c r="R3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    </row>
+    <row r="4" spans="1:142" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>64</v>
+      </c>
+      <c r="R4" t="s">
+        <v>65</v>
+      </c>
+      <c r="U4" t="s">
+        <v>62</v>
+      </c>
+      <c r="V4" t="s">
+        <v>63</v>
+      </c>
+      <c r="W4" t="s">
+        <v>64</v>
+      </c>
+      <c r="X4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:142" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4"/>
+      <c r="AY5"/>
+      <c r="AZ5"/>
+      <c r="BA5"/>
+      <c r="BB5"/>
+      <c r="BC5"/>
+      <c r="BD5"/>
+      <c r="BE5"/>
+      <c r="BF5"/>
+      <c r="BG5"/>
+      <c r="BH5"/>
+      <c r="BI5"/>
+      <c r="BJ5"/>
+      <c r="BK5"/>
+      <c r="BL5"/>
+      <c r="BM5"/>
+      <c r="BN5"/>
+      <c r="BO5"/>
+      <c r="BP5"/>
+      <c r="BQ5"/>
+      <c r="BR5"/>
+      <c r="BS5"/>
+      <c r="BT5"/>
+      <c r="BU5"/>
+      <c r="BV5"/>
+      <c r="BW5"/>
+      <c r="BX5"/>
+      <c r="BY5"/>
+      <c r="BZ5"/>
+      <c r="CA5"/>
+      <c r="CB5"/>
+      <c r="CC5"/>
+      <c r="CD5"/>
+      <c r="CE5"/>
+      <c r="CF5"/>
+      <c r="CG5"/>
+      <c r="CH5"/>
+      <c r="CI5"/>
+      <c r="CJ5"/>
+      <c r="CK5"/>
+      <c r="CL5"/>
+      <c r="CM5"/>
+      <c r="CN5"/>
+      <c r="CO5"/>
+      <c r="CP5"/>
+      <c r="CQ5"/>
+      <c r="CR5"/>
+      <c r="CS5"/>
+      <c r="CT5"/>
+      <c r="CU5"/>
+      <c r="CV5"/>
+      <c r="CW5"/>
+      <c r="CX5"/>
+      <c r="CY5"/>
+      <c r="CZ5"/>
+      <c r="DA5"/>
+      <c r="DB5"/>
+      <c r="DC5"/>
+      <c r="DD5"/>
+      <c r="DE5"/>
+      <c r="DF5"/>
+      <c r="DG5"/>
+      <c r="DH5"/>
+      <c r="DI5"/>
+      <c r="DJ5"/>
+      <c r="DK5"/>
+      <c r="DL5"/>
+      <c r="DM5"/>
+      <c r="DN5"/>
+      <c r="DO5"/>
+      <c r="DP5"/>
+      <c r="DQ5"/>
+      <c r="DR5"/>
+      <c r="DS5"/>
+      <c r="DT5"/>
+      <c r="DU5"/>
+      <c r="DV5"/>
+      <c r="DW5"/>
+      <c r="DX5"/>
+      <c r="DY5"/>
+      <c r="DZ5"/>
+      <c r="EA5"/>
+      <c r="EB5"/>
+      <c r="EC5"/>
+      <c r="ED5"/>
+      <c r="EE5"/>
+      <c r="EF5"/>
+      <c r="EG5"/>
+      <c r="EH5"/>
+      <c r="EI5"/>
+      <c r="EJ5"/>
+      <c r="EK5"/>
+      <c r="EL5"/>
+    </row>
+    <row r="6" spans="1:142" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="C6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="E6" s="10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="N6" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y6" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD6" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO6" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT6" s="20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:142" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="C7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="E7" s="10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
+      <c r="F7" s="10"/>
+      <c r="I7" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="N7" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y7" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD7" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO7" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT7" s="20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:142" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="C8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="D8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="E8" s="10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="N8" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y8" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD8" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO8" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT8" s="20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:142" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="C9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="D9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="G9" s="10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
+      <c r="H9" s="10"/>
+      <c r="I9" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="N9" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y9" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD9" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO9" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT9" s="20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:142" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="D10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="I10" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" s="10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y10" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD10" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO10" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT10" s="20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:142" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="C11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="D11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="G11" s="10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
+      <c r="H11" s="10"/>
+      <c r="I11" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="N11" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y11" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD11" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO11" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT11" s="20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:142" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="C12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="D12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="I12" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y12" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD12" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO12" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT12" s="20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:142" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4"/>
+      <c r="AY13"/>
+      <c r="AZ13"/>
+      <c r="BA13"/>
+      <c r="BB13"/>
+      <c r="BC13"/>
+      <c r="BD13"/>
+      <c r="BE13"/>
+      <c r="BF13"/>
+      <c r="BG13"/>
+      <c r="BH13"/>
+      <c r="BI13"/>
+      <c r="BJ13"/>
+      <c r="BK13"/>
+      <c r="BL13"/>
+      <c r="BM13"/>
+      <c r="BN13"/>
+      <c r="BO13"/>
+      <c r="BP13"/>
+      <c r="BQ13"/>
+      <c r="BR13"/>
+      <c r="BS13"/>
+      <c r="BT13"/>
+      <c r="BU13"/>
+      <c r="BV13"/>
+      <c r="BW13"/>
+      <c r="BX13"/>
+      <c r="BY13"/>
+      <c r="BZ13"/>
+      <c r="CA13"/>
+      <c r="CB13"/>
+      <c r="CC13"/>
+      <c r="CD13"/>
+      <c r="CE13"/>
+      <c r="CF13"/>
+      <c r="CG13"/>
+      <c r="CH13"/>
+      <c r="CI13"/>
+      <c r="CJ13"/>
+      <c r="CK13"/>
+      <c r="CL13"/>
+      <c r="CM13"/>
+      <c r="CN13"/>
+      <c r="CO13"/>
+      <c r="CP13"/>
+      <c r="CQ13"/>
+      <c r="CR13"/>
+      <c r="CS13"/>
+      <c r="CT13"/>
+      <c r="CU13"/>
+      <c r="CV13"/>
+      <c r="CW13"/>
+      <c r="CX13"/>
+      <c r="CY13"/>
+      <c r="CZ13"/>
+      <c r="DA13"/>
+      <c r="DB13"/>
+      <c r="DC13"/>
+      <c r="DD13"/>
+      <c r="DE13"/>
+      <c r="DF13"/>
+      <c r="DG13"/>
+      <c r="DH13"/>
+      <c r="DI13"/>
+      <c r="DJ13"/>
+      <c r="DK13"/>
+      <c r="DL13"/>
+      <c r="DM13"/>
+      <c r="DN13"/>
+      <c r="DO13"/>
+      <c r="DP13"/>
+      <c r="DQ13"/>
+      <c r="DR13"/>
+      <c r="DS13"/>
+      <c r="DT13"/>
+      <c r="DU13"/>
+      <c r="DV13"/>
+      <c r="DW13"/>
+      <c r="DX13"/>
+      <c r="DY13"/>
+      <c r="DZ13"/>
+      <c r="EA13"/>
+      <c r="EB13"/>
+      <c r="EC13"/>
+      <c r="ED13"/>
+      <c r="EE13"/>
+      <c r="EF13"/>
+      <c r="EG13"/>
+      <c r="EH13"/>
+      <c r="EI13"/>
+      <c r="EJ13"/>
+      <c r="EK13"/>
+      <c r="EL13"/>
+    </row>
+    <row r="14" spans="1:142" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B14" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
       <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
       <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AE14" s="11"/>
+      <c r="AK14" s="11"/>
+      <c r="AP14" s="11"/>
+      <c r="AU14" s="11"/>
+    </row>
+    <row r="15" spans="1:142" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="AD15" s="11"/>
+      <c r="AH15" s="11"/>
+      <c r="AI15" s="11"/>
+      <c r="AJ15" s="11"/>
+      <c r="AO15" s="11"/>
+      <c r="AT15" s="11"/>
+      <c r="AX15" s="11"/>
+    </row>
+    <row r="16" spans="1:142" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="S16" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AI16" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO16" s="13"/>
+      <c r="AT16" s="13"/>
+    </row>
+    <row r="17" spans="1:142" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="AY17"/>
+      <c r="AZ17"/>
+      <c r="BA17"/>
+      <c r="BB17"/>
+      <c r="BC17"/>
+      <c r="BD17"/>
+      <c r="BE17"/>
+      <c r="BF17"/>
+      <c r="BG17"/>
+      <c r="BH17"/>
+      <c r="BI17"/>
+      <c r="BJ17"/>
+      <c r="BK17"/>
+      <c r="BL17"/>
+      <c r="BM17"/>
+      <c r="BN17"/>
+      <c r="BO17"/>
+      <c r="BP17"/>
+      <c r="BQ17"/>
+      <c r="BR17"/>
+      <c r="BS17"/>
+      <c r="BT17"/>
+      <c r="BU17"/>
+      <c r="BV17"/>
+      <c r="BW17"/>
+      <c r="BX17"/>
+      <c r="BY17"/>
+      <c r="BZ17"/>
+      <c r="CA17"/>
+      <c r="CB17"/>
+      <c r="CC17"/>
+      <c r="CD17"/>
+      <c r="CE17"/>
+      <c r="CF17"/>
+      <c r="CG17"/>
+      <c r="CH17"/>
+      <c r="CI17"/>
+      <c r="CJ17"/>
+      <c r="CK17"/>
+      <c r="CL17"/>
+      <c r="CM17"/>
+      <c r="CN17"/>
+      <c r="CO17"/>
+      <c r="CP17"/>
+      <c r="CQ17"/>
+      <c r="CR17"/>
+      <c r="CS17"/>
+      <c r="CT17"/>
+      <c r="CU17"/>
+      <c r="CV17"/>
+      <c r="CW17"/>
+      <c r="CX17"/>
+      <c r="CY17"/>
+      <c r="CZ17"/>
+      <c r="DA17"/>
+      <c r="DB17"/>
+      <c r="DC17"/>
+      <c r="DD17"/>
+      <c r="DE17"/>
+      <c r="DF17"/>
+      <c r="DG17"/>
+      <c r="DH17"/>
+      <c r="DI17"/>
+      <c r="DJ17"/>
+      <c r="DK17"/>
+      <c r="DL17"/>
+      <c r="DM17"/>
+      <c r="DN17"/>
+      <c r="DO17"/>
+      <c r="DP17"/>
+      <c r="DQ17"/>
+      <c r="DR17"/>
+      <c r="DS17"/>
+      <c r="DT17"/>
+      <c r="DU17"/>
+      <c r="DV17"/>
+      <c r="DW17"/>
+      <c r="DX17"/>
+      <c r="DY17"/>
+      <c r="DZ17"/>
+      <c r="EA17"/>
+      <c r="EB17"/>
+      <c r="EC17"/>
+      <c r="ED17"/>
+      <c r="EE17"/>
+      <c r="EF17"/>
+      <c r="EG17"/>
+      <c r="EH17"/>
+      <c r="EI17"/>
+      <c r="EJ17"/>
+      <c r="EK17"/>
+      <c r="EL17"/>
+    </row>
+    <row r="18" spans="1:142" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="N15" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="P15" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B17" s="2" t="s">
+      <c r="O18" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:142" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" s="14" t="s">
+      <c r="O19" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:142" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20"/>
-      <c r="O20"/>
-      <c r="P20"/>
-      <c r="Q20"/>
-      <c r="R20"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="O20" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:142" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="P21" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q21" s="14"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
+      <c r="X21"/>
+      <c r="Y21"/>
+      <c r="Z21"/>
+      <c r="AA21"/>
+      <c r="AB21"/>
+      <c r="AC21"/>
+      <c r="AD21"/>
+      <c r="AE21"/>
+      <c r="AF21"/>
+      <c r="AG21"/>
+      <c r="AH21"/>
+      <c r="AI21"/>
+      <c r="AJ21"/>
+      <c r="AK21"/>
+      <c r="AL21"/>
+      <c r="AM21"/>
+      <c r="AN21"/>
+      <c r="AO21"/>
+      <c r="AP21"/>
+      <c r="AQ21"/>
+      <c r="AR21"/>
+      <c r="AS21"/>
+      <c r="AT21"/>
+      <c r="AU21"/>
+      <c r="AV21"/>
+      <c r="AW21"/>
+      <c r="AX21"/>
+      <c r="AY21"/>
+      <c r="AZ21"/>
+      <c r="BA21"/>
+      <c r="BB21"/>
+      <c r="BC21"/>
+      <c r="BD21"/>
+      <c r="BE21"/>
+      <c r="BF21"/>
+      <c r="BG21"/>
+      <c r="BH21"/>
+      <c r="BI21"/>
+      <c r="BJ21"/>
+      <c r="BK21"/>
+      <c r="BL21"/>
+      <c r="BM21"/>
+      <c r="BN21"/>
+      <c r="BO21"/>
+      <c r="BP21"/>
+      <c r="BQ21"/>
+      <c r="BR21"/>
+      <c r="BS21"/>
+      <c r="BT21"/>
+      <c r="BU21"/>
+      <c r="BV21"/>
+      <c r="BW21"/>
+      <c r="BX21"/>
+      <c r="BY21"/>
+      <c r="BZ21"/>
+      <c r="CA21"/>
+      <c r="CB21"/>
+      <c r="CC21"/>
+      <c r="CD21"/>
+      <c r="CE21"/>
+      <c r="CF21"/>
+      <c r="CG21"/>
+      <c r="CH21"/>
+      <c r="CI21"/>
+      <c r="CJ21"/>
+      <c r="CK21"/>
+      <c r="CL21"/>
+      <c r="CM21"/>
+      <c r="CN21"/>
+      <c r="CO21"/>
+      <c r="CP21"/>
+      <c r="CQ21"/>
+      <c r="CR21"/>
+      <c r="CS21"/>
+      <c r="CT21"/>
+      <c r="CU21"/>
+      <c r="CV21"/>
+      <c r="CW21"/>
+      <c r="CX21"/>
+      <c r="CY21"/>
+      <c r="CZ21"/>
+      <c r="DA21"/>
+      <c r="DB21"/>
+      <c r="DC21"/>
+      <c r="DD21"/>
+      <c r="DE21"/>
+      <c r="DF21"/>
+      <c r="DG21"/>
+      <c r="DH21"/>
+      <c r="DI21"/>
+      <c r="DJ21"/>
+      <c r="DK21"/>
+      <c r="DL21"/>
+      <c r="DM21"/>
+      <c r="DN21"/>
+      <c r="DO21"/>
+      <c r="DP21"/>
+      <c r="DQ21"/>
+      <c r="DR21"/>
+      <c r="DS21"/>
+      <c r="DT21"/>
+      <c r="DU21"/>
+      <c r="DV21"/>
+      <c r="DW21"/>
+      <c r="DX21"/>
+      <c r="DY21"/>
+      <c r="DZ21"/>
+      <c r="EA21"/>
+      <c r="EB21"/>
+      <c r="EC21"/>
+      <c r="ED21"/>
+      <c r="EE21"/>
+      <c r="EF21"/>
+      <c r="EG21"/>
+      <c r="EH21"/>
+      <c r="EI21"/>
+      <c r="EJ21"/>
+      <c r="EK21"/>
+      <c r="EL21"/>
+    </row>
+    <row r="22" spans="1:142" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H22" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="P22" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q22" s="14"/>
+    </row>
+    <row r="23" spans="1:142" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q23" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:142" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:142" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K25" s="16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:142" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="K26" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="U26" s="16" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="V26" s="16"/>
+    </row>
+    <row r="27" spans="1:142" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K27" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="U27" s="16" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="V27" s="16"/>
+    </row>
+    <row r="28" spans="1:142" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
-      <c r="B28" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K28" s="16" t="s">
+      <c r="B28" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="W28" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L28" s="16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="X28" s="16"/>
+    </row>
+    <row r="29" spans="1:142" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W29" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="X29" s="16"/>
+      <c r="Z29" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA29" s="16"/>
+    </row>
+    <row r="30" spans="1:142" x14ac:dyDescent="0.3">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB30" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC30" s="16"/>
+    </row>
+    <row r="31" spans="1:142" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="5"/>
+      <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L29" s="16" t="s">
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31"/>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
+      <c r="W31"/>
+      <c r="X31"/>
+      <c r="Y31"/>
+      <c r="Z31"/>
+      <c r="AA31"/>
+      <c r="AB31" s="16" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="M30"/>
-      <c r="N30"/>
-      <c r="O30"/>
-      <c r="P30"/>
-      <c r="Q30"/>
-      <c r="R30"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B31" s="5"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B32" s="15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B33" s="5" t="s">
+      <c r="AC31" s="16"/>
+      <c r="AD31"/>
+      <c r="AE31"/>
+      <c r="AF31"/>
+      <c r="AG31"/>
+      <c r="AH31"/>
+      <c r="AI31"/>
+      <c r="AJ31"/>
+      <c r="AK31"/>
+      <c r="AL31"/>
+      <c r="AM31"/>
+      <c r="AN31"/>
+      <c r="AO31"/>
+      <c r="AP31"/>
+      <c r="AQ31"/>
+      <c r="AR31"/>
+      <c r="AS31"/>
+      <c r="AT31"/>
+      <c r="AU31"/>
+      <c r="AV31"/>
+      <c r="AW31"/>
+      <c r="AX31"/>
+      <c r="AY31"/>
+      <c r="AZ31"/>
+      <c r="BA31"/>
+      <c r="BB31"/>
+      <c r="BC31"/>
+      <c r="BD31"/>
+      <c r="BE31"/>
+      <c r="BF31"/>
+      <c r="BG31"/>
+      <c r="BH31"/>
+      <c r="BI31"/>
+      <c r="BJ31"/>
+      <c r="BK31"/>
+      <c r="BL31"/>
+      <c r="BM31"/>
+      <c r="BN31"/>
+      <c r="BO31"/>
+      <c r="BP31"/>
+      <c r="BQ31"/>
+      <c r="BR31"/>
+      <c r="BS31"/>
+      <c r="BT31"/>
+      <c r="BU31"/>
+      <c r="BV31"/>
+      <c r="BW31"/>
+      <c r="BX31"/>
+      <c r="BY31"/>
+      <c r="BZ31"/>
+      <c r="CA31"/>
+      <c r="CB31"/>
+      <c r="CC31"/>
+      <c r="CD31"/>
+      <c r="CE31"/>
+      <c r="CF31"/>
+      <c r="CG31"/>
+      <c r="CH31"/>
+      <c r="CI31"/>
+      <c r="CJ31"/>
+      <c r="CK31"/>
+      <c r="CL31"/>
+      <c r="CM31"/>
+      <c r="CN31"/>
+      <c r="CO31"/>
+      <c r="CP31"/>
+      <c r="CQ31"/>
+      <c r="CR31"/>
+      <c r="CS31"/>
+      <c r="CT31"/>
+      <c r="CU31"/>
+      <c r="CV31"/>
+      <c r="CW31"/>
+      <c r="CX31"/>
+      <c r="CY31"/>
+      <c r="CZ31"/>
+      <c r="DA31"/>
+      <c r="DB31"/>
+      <c r="DC31"/>
+      <c r="DD31"/>
+      <c r="DE31"/>
+      <c r="DF31"/>
+      <c r="DG31"/>
+      <c r="DH31"/>
+      <c r="DI31"/>
+      <c r="DJ31"/>
+      <c r="DK31"/>
+      <c r="DL31"/>
+      <c r="DM31"/>
+      <c r="DN31"/>
+      <c r="DO31"/>
+      <c r="DP31"/>
+      <c r="DQ31"/>
+      <c r="DR31"/>
+      <c r="DS31"/>
+      <c r="DT31"/>
+      <c r="DU31"/>
+      <c r="DV31"/>
+      <c r="DW31"/>
+      <c r="DX31"/>
+      <c r="DY31"/>
+      <c r="DZ31"/>
+      <c r="EA31"/>
+      <c r="EB31"/>
+      <c r="EC31"/>
+      <c r="ED31"/>
+      <c r="EE31"/>
+      <c r="EF31"/>
+      <c r="EG31"/>
+      <c r="EH31"/>
+      <c r="EI31"/>
+      <c r="EJ31"/>
+      <c r="EK31"/>
+      <c r="EL31"/>
+    </row>
+    <row r="32" spans="1:142" x14ac:dyDescent="0.3">
+      <c r="B32" s="5"/>
+    </row>
+    <row r="33" spans="1:142" x14ac:dyDescent="0.3">
+      <c r="B33" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:142" x14ac:dyDescent="0.3">
+      <c r="B34" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z34" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA34" s="16"/>
+    </row>
+    <row r="35" spans="1:142" x14ac:dyDescent="0.3">
+      <c r="B35" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="L33" s="16" t="s">
+      <c r="Z35" s="16" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B34" s="5" t="s">
+      <c r="AA35" s="16"/>
+    </row>
+    <row r="36" spans="1:142" x14ac:dyDescent="0.3">
+      <c r="B36" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="L34" s="16" t="s">
+      <c r="AB36" s="16" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B35" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L35" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L36" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC36" s="16"/>
+    </row>
+    <row r="37" spans="1:142" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37"/>
-      <c r="E37"/>
-      <c r="F37"/>
-      <c r="G37"/>
-      <c r="H37"/>
-      <c r="I37"/>
-      <c r="J37"/>
-      <c r="K37"/>
-      <c r="L37"/>
-      <c r="M37" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB37" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="N37"/>
-      <c r="O37"/>
-      <c r="P37"/>
-      <c r="Q37"/>
-      <c r="R37"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="AC37" s="16"/>
+    </row>
+    <row r="38" spans="1:142" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="M38" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+      <c r="S38"/>
+      <c r="T38"/>
+      <c r="U38"/>
+      <c r="V38"/>
+      <c r="W38"/>
+      <c r="X38"/>
+      <c r="Y38"/>
+      <c r="Z38"/>
+      <c r="AA38"/>
+      <c r="AB38"/>
+      <c r="AC38"/>
+      <c r="AD38"/>
+      <c r="AE38" s="16" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="AF38"/>
+      <c r="AG38"/>
+      <c r="AH38"/>
+      <c r="AI38"/>
+      <c r="AJ38"/>
+      <c r="AK38"/>
+      <c r="AL38"/>
+      <c r="AM38"/>
+      <c r="AN38"/>
+      <c r="AO38"/>
+      <c r="AP38"/>
+      <c r="AQ38"/>
+      <c r="AR38"/>
+      <c r="AS38"/>
+      <c r="AT38"/>
+      <c r="AU38"/>
+      <c r="AV38"/>
+      <c r="AW38"/>
+      <c r="AX38"/>
+      <c r="AY38"/>
+      <c r="AZ38"/>
+      <c r="BA38"/>
+      <c r="BB38"/>
+      <c r="BC38"/>
+      <c r="BD38"/>
+      <c r="BE38"/>
+      <c r="BF38"/>
+      <c r="BG38"/>
+      <c r="BH38"/>
+      <c r="BI38"/>
+      <c r="BJ38"/>
+      <c r="BK38"/>
+      <c r="BL38"/>
+      <c r="BM38"/>
+      <c r="BN38"/>
+      <c r="BO38"/>
+      <c r="BP38"/>
+      <c r="BQ38"/>
+      <c r="BR38"/>
+      <c r="BS38"/>
+      <c r="BT38"/>
+      <c r="BU38"/>
+      <c r="BV38"/>
+      <c r="BW38"/>
+      <c r="BX38"/>
+      <c r="BY38"/>
+      <c r="BZ38"/>
+      <c r="CA38"/>
+      <c r="CB38"/>
+      <c r="CC38"/>
+      <c r="CD38"/>
+      <c r="CE38"/>
+      <c r="CF38"/>
+      <c r="CG38"/>
+      <c r="CH38"/>
+      <c r="CI38"/>
+      <c r="CJ38"/>
+      <c r="CK38"/>
+      <c r="CL38"/>
+      <c r="CM38"/>
+      <c r="CN38"/>
+      <c r="CO38"/>
+      <c r="CP38"/>
+      <c r="CQ38"/>
+      <c r="CR38"/>
+      <c r="CS38"/>
+      <c r="CT38"/>
+      <c r="CU38"/>
+      <c r="CV38"/>
+      <c r="CW38"/>
+      <c r="CX38"/>
+      <c r="CY38"/>
+      <c r="CZ38"/>
+      <c r="DA38"/>
+      <c r="DB38"/>
+      <c r="DC38"/>
+      <c r="DD38"/>
+      <c r="DE38"/>
+      <c r="DF38"/>
+      <c r="DG38"/>
+      <c r="DH38"/>
+      <c r="DI38"/>
+      <c r="DJ38"/>
+      <c r="DK38"/>
+      <c r="DL38"/>
+      <c r="DM38"/>
+      <c r="DN38"/>
+      <c r="DO38"/>
+      <c r="DP38"/>
+      <c r="DQ38"/>
+      <c r="DR38"/>
+      <c r="DS38"/>
+      <c r="DT38"/>
+      <c r="DU38"/>
+      <c r="DV38"/>
+      <c r="DW38"/>
+      <c r="DX38"/>
+      <c r="DY38"/>
+      <c r="DZ38"/>
+      <c r="EA38"/>
+      <c r="EB38"/>
+      <c r="EC38"/>
+      <c r="ED38"/>
+      <c r="EE38"/>
+      <c r="EF38"/>
+      <c r="EG38"/>
+      <c r="EH38"/>
+      <c r="EI38"/>
+      <c r="EJ38"/>
+      <c r="EK38"/>
+      <c r="EL38"/>
+    </row>
+    <row r="39" spans="1:142" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="M39" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE39" s="16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:142" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF40" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG40" s="16"/>
+    </row>
+    <row r="41" spans="1:142" x14ac:dyDescent="0.3">
+      <c r="A41" s="2"/>
+      <c r="B41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK41" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:142" x14ac:dyDescent="0.3">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="2"/>
-      <c r="O40" s="16" t="s">
+      <c r="AK42" s="16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2" t="s">
+    <row r="43" spans="1:142" x14ac:dyDescent="0.3">
+      <c r="A43" s="2"/>
+      <c r="B43" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="2"/>
-      <c r="O41" s="16" t="s">
+      <c r="AL43" s="16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A42" s="2"/>
-      <c r="B42" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="O42" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A43" s="2"/>
-      <c r="C43" s="2"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:142" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
-      <c r="B44" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C44" s="2"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:142" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
-      <c r="B45" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="O45" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B45" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:142" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="O46" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK46" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:142" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="O47" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK47" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:142" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
-      <c r="B48" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="P48" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="B48" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK48" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:142" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P49" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="AL49" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:142" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P50" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM50" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:142" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN51" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:142" x14ac:dyDescent="0.3">
+      <c r="A52" s="2"/>
+    </row>
+    <row r="53" spans="1:142" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" s="6"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A51" s="2"/>
-    </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3" t="s">
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3"/>
+      <c r="W53" s="3"/>
+      <c r="X53" s="3"/>
+      <c r="Y53" s="3"/>
+      <c r="Z53" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA53" s="3"/>
+      <c r="AB53" s="3"/>
+      <c r="AC53" s="3"/>
+      <c r="AD53" s="3"/>
+      <c r="AE53" s="3"/>
+      <c r="AF53" s="3"/>
+      <c r="AG53" s="3"/>
+      <c r="AH53" s="3"/>
+      <c r="AI53" s="3"/>
+      <c r="AJ53" s="3"/>
+      <c r="AK53" s="3"/>
+      <c r="AL53" s="3"/>
+      <c r="AM53" s="3"/>
+      <c r="AN53" s="3"/>
+      <c r="AO53" s="3"/>
+      <c r="AP53" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ53" s="3"/>
+      <c r="AR53" s="3"/>
+      <c r="AS53" s="3"/>
+      <c r="AT53" s="3"/>
+      <c r="AU53" s="3"/>
+      <c r="AV53" s="3"/>
+      <c r="AW53" s="3"/>
+      <c r="AX53" s="3"/>
+    </row>
+    <row r="54" spans="1:142" x14ac:dyDescent="0.3">
+      <c r="B54" s="5"/>
+    </row>
+    <row r="55" spans="1:142" x14ac:dyDescent="0.3">
+      <c r="B55" s="5"/>
+    </row>
+    <row r="56" spans="1:142" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
-      <c r="O52" s="3"/>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="R52" s="3"/>
-    </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="B53" s="5"/>
-    </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="B54" s="5"/>
-    </row>
-    <row r="55" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
+      <c r="B56" s="4"/>
+      <c r="AY56"/>
+      <c r="AZ56"/>
+      <c r="BA56"/>
+      <c r="BB56"/>
+      <c r="BC56"/>
+      <c r="BD56"/>
+      <c r="BE56"/>
+      <c r="BF56"/>
+      <c r="BG56"/>
+      <c r="BH56"/>
+      <c r="BI56"/>
+      <c r="BJ56"/>
+      <c r="BK56"/>
+      <c r="BL56"/>
+      <c r="BM56"/>
+      <c r="BN56"/>
+      <c r="BO56"/>
+      <c r="BP56"/>
+      <c r="BQ56"/>
+      <c r="BR56"/>
+      <c r="BS56"/>
+      <c r="BT56"/>
+      <c r="BU56"/>
+      <c r="BV56"/>
+      <c r="BW56"/>
+      <c r="BX56"/>
+      <c r="BY56"/>
+      <c r="BZ56"/>
+      <c r="CA56"/>
+      <c r="CB56"/>
+      <c r="CC56"/>
+      <c r="CD56"/>
+      <c r="CE56"/>
+      <c r="CF56"/>
+      <c r="CG56"/>
+      <c r="CH56"/>
+      <c r="CI56"/>
+      <c r="CJ56"/>
+      <c r="CK56"/>
+      <c r="CL56"/>
+      <c r="CM56"/>
+      <c r="CN56"/>
+      <c r="CO56"/>
+      <c r="CP56"/>
+      <c r="CQ56"/>
+      <c r="CR56"/>
+      <c r="CS56"/>
+      <c r="CT56"/>
+      <c r="CU56"/>
+      <c r="CV56"/>
+      <c r="CW56"/>
+      <c r="CX56"/>
+      <c r="CY56"/>
+      <c r="CZ56"/>
+      <c r="DA56"/>
+      <c r="DB56"/>
+      <c r="DC56"/>
+      <c r="DD56"/>
+      <c r="DE56"/>
+      <c r="DF56"/>
+      <c r="DG56"/>
+      <c r="DH56"/>
+      <c r="DI56"/>
+      <c r="DJ56"/>
+      <c r="DK56"/>
+      <c r="DL56"/>
+      <c r="DM56"/>
+      <c r="DN56"/>
+      <c r="DO56"/>
+      <c r="DP56"/>
+      <c r="DQ56"/>
+      <c r="DR56"/>
+      <c r="DS56"/>
+      <c r="DT56"/>
+      <c r="DU56"/>
+      <c r="DV56"/>
+      <c r="DW56"/>
+      <c r="DX56"/>
+      <c r="DY56"/>
+      <c r="DZ56"/>
+      <c r="EA56"/>
+      <c r="EB56"/>
+      <c r="EC56"/>
+      <c r="ED56"/>
+      <c r="EE56"/>
+      <c r="EF56"/>
+      <c r="EG56"/>
+      <c r="EH56"/>
+      <c r="EI56"/>
+      <c r="EJ56"/>
+      <c r="EK56"/>
+      <c r="EL56"/>
+    </row>
+    <row r="57" spans="1:142" x14ac:dyDescent="0.3">
+      <c r="B57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU57" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV57" s="18"/>
+      <c r="AW57" s="18"/>
+      <c r="AX57" s="18"/>
+    </row>
+    <row r="58" spans="1:142" x14ac:dyDescent="0.3">
+      <c r="B58" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="6"/>
-    </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="B56" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R56" s="18" t="s">
+      <c r="AU58" s="18" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="B57" s="2" t="s">
+      <c r="AV58" s="18"/>
+      <c r="AW58" s="18"/>
+      <c r="AX58" s="18"/>
+    </row>
+    <row r="59" spans="1:142" x14ac:dyDescent="0.3">
+      <c r="B59" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="R57" s="18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="B58" s="2" t="s">
+      <c r="AU59" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="R58" s="18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="63" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="5"/>
-      <c r="D63"/>
-      <c r="E63"/>
-      <c r="F63"/>
-      <c r="G63"/>
-      <c r="H63"/>
-      <c r="I63"/>
-      <c r="J63"/>
-      <c r="K63"/>
-      <c r="L63"/>
-      <c r="M63"/>
-      <c r="N63"/>
-      <c r="O63"/>
-      <c r="P63"/>
-      <c r="Q63"/>
-      <c r="R63"/>
-      <c r="S63"/>
-      <c r="T63"/>
-      <c r="U63"/>
-      <c r="V63"/>
-      <c r="W63"/>
-      <c r="X63"/>
-      <c r="Y63"/>
-      <c r="Z63"/>
-      <c r="AA63"/>
-      <c r="AB63"/>
-      <c r="AC63"/>
-      <c r="AD63"/>
-      <c r="AE63"/>
-      <c r="AF63"/>
-      <c r="AG63"/>
+      <c r="AV59" s="18"/>
+      <c r="AW59" s="18"/>
+      <c r="AX59" s="18"/>
+    </row>
+    <row r="64" spans="1:142" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64"/>
+      <c r="B64" s="2"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+      <c r="O64"/>
+      <c r="P64"/>
+      <c r="Q64"/>
+      <c r="R64"/>
+      <c r="S64"/>
+      <c r="T64"/>
+      <c r="U64"/>
+      <c r="V64"/>
+      <c r="W64"/>
+      <c r="X64"/>
+      <c r="Y64"/>
+      <c r="Z64"/>
+      <c r="AA64"/>
+      <c r="AB64"/>
+      <c r="AC64"/>
+      <c r="AD64"/>
+      <c r="AE64"/>
+      <c r="AF64"/>
+      <c r="AG64"/>
+      <c r="AH64"/>
+      <c r="AI64"/>
+      <c r="AJ64"/>
+      <c r="AK64"/>
+      <c r="AL64"/>
+      <c r="AM64"/>
+      <c r="AN64"/>
+      <c r="AO64"/>
+      <c r="AP64"/>
+      <c r="AQ64"/>
+      <c r="AR64"/>
+      <c r="AS64"/>
+      <c r="AT64"/>
+      <c r="AU64"/>
+      <c r="AV64"/>
+      <c r="AW64"/>
+      <c r="AX64"/>
+      <c r="AY64"/>
+      <c r="AZ64"/>
+      <c r="BA64"/>
+      <c r="BB64"/>
+      <c r="BC64"/>
+      <c r="BD64"/>
+      <c r="BE64"/>
+      <c r="BF64"/>
+      <c r="BG64"/>
+      <c r="BH64"/>
+      <c r="BI64"/>
+      <c r="BJ64"/>
+      <c r="BK64"/>
+      <c r="BL64"/>
+      <c r="BM64"/>
+      <c r="BN64"/>
+      <c r="BO64"/>
+      <c r="BP64"/>
+      <c r="BQ64"/>
+      <c r="BR64"/>
+      <c r="BS64"/>
+      <c r="BT64"/>
+      <c r="BU64"/>
+      <c r="BV64"/>
+      <c r="BW64"/>
+      <c r="BX64"/>
+      <c r="BY64"/>
+      <c r="BZ64"/>
+      <c r="CA64"/>
+      <c r="CB64"/>
+      <c r="CC64"/>
+      <c r="CD64"/>
+      <c r="CE64"/>
+      <c r="CF64"/>
+      <c r="CG64"/>
+      <c r="CH64"/>
+      <c r="CI64"/>
+      <c r="CJ64"/>
+      <c r="CK64"/>
+      <c r="CL64"/>
+      <c r="CM64"/>
+      <c r="CN64"/>
+      <c r="CO64"/>
+      <c r="CP64"/>
+      <c r="CQ64"/>
+      <c r="CR64"/>
+      <c r="CS64"/>
+      <c r="CT64"/>
+      <c r="CU64"/>
+      <c r="CV64"/>
+      <c r="CW64"/>
+      <c r="CX64"/>
+      <c r="CY64"/>
+      <c r="CZ64"/>
+      <c r="DA64"/>
+      <c r="DB64"/>
+      <c r="DC64"/>
+      <c r="DD64"/>
+      <c r="DE64"/>
+      <c r="DF64"/>
+      <c r="DG64"/>
+      <c r="DH64"/>
+      <c r="DI64"/>
+      <c r="DJ64"/>
+      <c r="DK64"/>
+      <c r="DL64"/>
+      <c r="DM64"/>
+      <c r="DN64"/>
+      <c r="DO64"/>
+      <c r="DP64"/>
+      <c r="DQ64"/>
+      <c r="DR64"/>
+      <c r="DS64"/>
+      <c r="DT64"/>
+      <c r="DU64"/>
+      <c r="DV64"/>
+      <c r="DW64"/>
+      <c r="DX64"/>
+      <c r="DY64"/>
+      <c r="DZ64"/>
+      <c r="EA64"/>
+      <c r="EB64"/>
+      <c r="EC64"/>
+      <c r="ED64"/>
+      <c r="EE64"/>
+      <c r="EF64"/>
+      <c r="EG64"/>
+      <c r="EH64"/>
+      <c r="EI64"/>
+      <c r="EJ64"/>
+      <c r="EK64"/>
+      <c r="EL64"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="C2:O2"/>
+    <mergeCell ref="S2:AE2"/>
+    <mergeCell ref="AI2:AU2"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
